--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>username</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>型名</t>
     <rPh sb="0" eb="2">
       <t>カタメイ</t>
@@ -184,14 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>birth</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>e-mail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -224,10 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>telnumber</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メールアドレス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -288,10 +272,6 @@
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>authority</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1012,14 +992,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>workcategory</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>joindate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">             </t>
     </r>
@@ -1255,10 +1227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DB()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1347,24 +1315,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>社員一覧機能</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">　　社員一覧画面へ
 </t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birthday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adress</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joined_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin_auth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員一覧/削除機能</t>
+    <rPh sb="0" eb="2">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB(employee_managemen)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1935,6 +1938,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2010,7 +2014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2048,7 +2051,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2114,7 +2117,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2190,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2246,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2316,7 +2319,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2392,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2448,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,21 +2491,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログインユーザ</a:t>
+            <a:t>UseLogin</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -2534,7 +2529,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2584,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2655,7 +2650,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2698,12 +2693,20 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Employee</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エンプロイテーブル</a:t>
+            <a:t>テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2728,7 +2731,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2781,7 +2784,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2852,7 +2855,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2918,7 +2921,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2994,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3047,7 +3050,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3120,7 +3123,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3196,7 +3199,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3252,7 +3255,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3295,21 +3298,13 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログインユーザ</a:t>
+            <a:t>UseLogin</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
@@ -3341,7 +3336,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3396,7 +3391,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3462,7 +3457,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3517,7 +3512,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3578,7 @@
         <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3626,31 +3621,31 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ログインユーザ</a:t>
+            <a:t>UseLogin/</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/</a:t>
+            <a:t>Employee</a:t>
           </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エンプロイテーブル</a:t>
+            <a:t>テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3680,7 +3675,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3753,7 +3748,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3809,7 +3804,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3882,7 +3877,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3949,7 +3944,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4015,7 +4010,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4088,7 +4083,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4144,7 +4139,7 @@
         <xdr:cNvPr id="25" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4217,7 +4212,7 @@
         <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4260,20 +4255,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインユーザ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/</a:t>
+            <a:t>UseLogin/Employee</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -4281,7 +4268,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エンプロイテーブル</a:t>
+            <a:t>テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4306,7 +4293,7 @@
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4362,7 +4349,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4565,7 +4552,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,7 +4625,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4694,7 +4681,7 @@
         <xdr:cNvPr id="39" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4767,7 +4754,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4834,7 +4821,7 @@
         <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4877,20 +4864,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインユーザ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/</a:t>
+            <a:t>UseLogin/Employee</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -4898,7 +4877,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エンプロイテーブル</a:t>
+            <a:t>テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4923,7 +4902,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4989,7 +4968,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5044,7 +5023,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5076,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5163,7 +5142,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5241,7 +5220,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5307,7 +5286,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5380,7 +5359,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5436,7 +5415,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5509,7 +5488,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5591,7 +5570,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5647,7 +5626,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5690,28 +5669,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ログインユーザ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>/</a:t>
+            <a:t>UseLogin/Employee</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
@@ -5719,7 +5682,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>エンプロイテーブル</a:t>
+            <a:t>テーブル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5744,7 +5707,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5800,7 +5763,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5866,7 +5829,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5919,7 +5882,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6260,7 +6223,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6273,316 +6236,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -6605,7 +6568,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -6645,7 +6608,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6685,7 +6648,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -6706,7 +6669,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -6727,7 +6690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -6767,7 +6730,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6807,7 +6770,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -6847,7 +6810,7 @@
     </row>
     <row r="34" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -6887,7 +6850,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6908,7 +6871,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6948,7 +6911,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6970,14 +6933,14 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+        <v>74</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -6993,14 +6956,14 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+        <v>75</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -7053,7 +7016,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7074,7 +7037,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7153,8 +7116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7167,316 +7130,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -7499,7 +7462,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7539,7 +7502,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7579,7 +7542,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7600,7 +7563,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7621,7 +7584,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7661,7 +7624,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7683,14 +7646,14 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -7706,14 +7669,14 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+        <v>106</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -7775,7 +7738,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7815,7 +7778,7 @@
     </row>
     <row r="38" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -7855,7 +7818,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -7876,7 +7839,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -7916,7 +7879,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -7956,7 +7919,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7996,7 +7959,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8017,7 +7980,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -8057,7 +8020,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8078,7 +8041,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8158,7 +8121,7 @@
   <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:Q29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8171,563 +8134,563 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="54"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="54"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="54"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="58"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
+      <c r="A33" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -8750,7 +8713,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8759,7 +8722,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -8792,7 +8755,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8801,7 +8764,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -8815,7 +8778,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8842,7 +8805,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -8863,7 +8826,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -8884,7 +8847,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -8898,7 +8861,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -8926,7 +8889,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -8940,7 +8903,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -8961,7 +8924,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8970,7 +8933,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -9002,7 +8965,7 @@
     </row>
     <row r="47" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -9011,7 +8974,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -9043,7 +9006,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -9052,7 +9015,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -9066,7 +9029,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -9075,7 +9038,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -9107,7 +9070,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -9123,11 +9086,11 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13"/>
@@ -9157,7 +9120,7 @@
       <c r="A55" s="3"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="13"/>
@@ -9187,7 +9150,7 @@
       <c r="A57" s="3"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="13"/>
@@ -9203,7 +9166,7 @@
       <c r="A58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="13"/>
@@ -9243,7 +9206,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -9263,8 +9226,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="61" t="s">
-        <v>176</v>
+      <c r="H61" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -9355,7 +9318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q60"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
@@ -9369,316 +9332,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>59</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="49"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="55"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="55"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="58"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="49"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -9701,7 +9664,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9711,7 +9674,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -9724,7 +9687,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9734,7 +9697,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -9766,7 +9729,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9776,7 +9739,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -9808,7 +9771,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -9818,7 +9781,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -9831,7 +9794,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -9841,7 +9804,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -9854,7 +9817,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -9864,7 +9827,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -9896,7 +9859,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -9906,7 +9869,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -9938,7 +9901,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -9948,7 +9911,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -9980,7 +9943,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9990,7 +9953,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10022,7 +9985,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -10032,7 +9995,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -10064,7 +10027,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10074,7 +10037,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -10106,7 +10069,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10116,7 +10079,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10148,7 +10111,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10158,7 +10121,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10190,7 +10153,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10200,7 +10163,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10251,7 +10214,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10261,7 +10224,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -10293,7 +10256,7 @@
     </row>
     <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10303,7 +10266,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -10335,7 +10298,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10345,7 +10308,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -10358,7 +10321,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10368,7 +10331,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -10437,7 +10400,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10447,7 +10410,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -10460,7 +10423,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -10470,7 +10433,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -10554,16 +10517,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -10571,13 +10534,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -10585,13 +10548,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -10599,13 +10562,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10613,13 +10576,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -10633,7 +10596,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10647,40 +10610,40 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="59"/>
+        <v>31</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="28">
         <v>1</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -10688,19 +10651,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -10708,19 +10671,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -10728,19 +10691,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>38</v>
+        <v>169</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -10748,19 +10711,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -10768,19 +10731,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -10788,19 +10751,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -10808,19 +10771,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -10828,19 +10791,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -10848,19 +10811,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -10869,6 +10832,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10916,7 +10880,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -10927,7 +10891,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -10938,7 +10902,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -10949,7 +10913,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -11022,17 +10986,17 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
       <c r="D24" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.15">
@@ -11042,7 +11006,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -11057,7 +11021,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11068,109 +11032,109 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="59"/>
+      <c r="A3" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="60"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B14" s="31"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="218">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -839,97 +839,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　　　　2-1-3. 入力された年齢を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-4. 入力された生年月日を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-5. 入力された連絡先を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-6. 入力されたメールアドレスを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-7. 入力された職業カテゴリを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-8. 入力された入社日を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　　　2-1-9. 入力された管理者情報を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">             </t>
     </r>
@@ -1116,16 +1025,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ情報画面</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>社員情報編集画面</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1145,33 +1044,6 @@
     <t>IDが重複しています。</t>
     <rPh sb="3" eb="5">
       <t>チョウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワードの文字数を**にしてください</t>
-    <rPh sb="6" eb="9">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年齢エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年齢の数値に誤りがあります。</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アヤマ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1368,6 +1240,549 @@
   </si>
   <si>
     <t>DB(employee_managemen)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存に存在するIDと同じ場合</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID・パスワードが違う場合</t>
+    <rPh sb="9" eb="10">
+      <t>チガ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員情報編集画面</t>
+  </si>
+  <si>
+    <t>ユーザ情報画面/社員情報編集画面</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID空白エラー</t>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード空白エラー</t>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDが空白の場合</t>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが空白の場合</t>
+    <rPh sb="6" eb="8">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢空白エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDが入力されていません</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが入力されていません</t>
+    <rPh sb="6" eb="8">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢が入力されていません</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別が選択されていません</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別空選択</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日空白エラー</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日が入力されていません</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年齢が空白の場合</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日が空白の場合</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先が入力されていません</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先が空白の場合</t>
+    <rPh sb="0" eb="3">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業空白エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス空白エラー</t>
+    <rPh sb="7" eb="9">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連絡先空白エラー</t>
+    <rPh sb="0" eb="2">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日空白エラー</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者選択空白エラー</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>クウハク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メードアドレスが入力されていまさん</t>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業が入力されていません</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレスが空白の場合</t>
+    <rPh sb="8" eb="10">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日が入力されていません</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者が選択されていません</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>職業が空白の場合</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入社日が空白の場合</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウハク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者のボタンが空の場合</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>性別のボタンが空の場合</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードの文字数を8文字以上12文字以下にしてください。</t>
+    <rPh sb="6" eb="9">
+      <t>モジスウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7文字未満/13文字以上の場合</t>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-3. 入力された名前を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-4. 選択された年齢を取得</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-5. 選択された性別を取得</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-6. 入力された生年月日を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-7. 入力された連絡先を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-8. 入力されたメールアドレスを取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-9. 入力された職業カテゴリを取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-10. 入力された入社日を取得</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-11. 選択された管理者情報を取得</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1895,7 +2310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1916,7 +2331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
@@ -2014,6 +2428,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2051,7 +2473,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2117,7 +2539,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2190,7 +2612,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2246,7 +2668,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2741,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2392,7 +2814,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2870,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2951,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2584,7 +3006,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +3072,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +3153,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2784,7 +3206,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +3277,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2921,7 +3343,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,7 +3416,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3050,7 +3472,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3545,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3199,7 +3621,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3677,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3758,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3813,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3457,7 +3879,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3512,7 +3934,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3578,7 +4000,7 @@
         <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3675,7 +4097,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3748,7 +4170,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3804,7 +4226,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3877,7 +4299,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3944,7 +4366,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4010,7 +4432,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4083,7 +4505,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +4561,7 @@
         <xdr:cNvPr id="25" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4212,7 +4634,7 @@
         <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4293,7 +4715,7 @@
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4349,7 +4771,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4552,7 +4974,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4625,7 +5047,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4681,7 +5103,7 @@
         <xdr:cNvPr id="39" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4754,7 +5176,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4821,7 +5243,7 @@
         <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4902,7 +5324,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4968,7 +5390,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5023,7 +5445,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +5498,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5142,7 +5564,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5220,7 +5642,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5286,7 +5708,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5359,7 +5781,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5415,7 +5837,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5910,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5570,7 +5992,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +6048,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5707,7 +6129,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +6185,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5829,7 +6251,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5882,7 +6304,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6236,316 +6658,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -6935,12 +7357,12 @@
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -6958,12 +7380,12 @@
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -7116,7 +7538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
@@ -7130,316 +7552,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -7648,12 +8070,12 @@
       <c r="B31" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
+      <c r="C31" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -7671,12 +8093,12 @@
       <c r="B32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -7839,7 +8261,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -8041,7 +8463,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8120,8 +8542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8134,563 +8556,563 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="50"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="52"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="54"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="54"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="53"/>
+      <c r="Q25" s="54"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="53"/>
+      <c r="Q26" s="54"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="54"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="58"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="53"/>
+      <c r="Q30" s="53"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="48"/>
-      <c r="Q33" s="49"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="48"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -9038,7 +9460,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -9226,8 +9648,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="36" t="s">
-        <v>167</v>
+      <c r="H61" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -9316,10 +9738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Q17"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9332,316 +9754,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="49"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="48"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="51"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="53"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="55"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="54"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="54"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="53"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="54"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="53"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="54"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="53"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="53"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="54"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="54"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="54"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="54"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -9664,7 +10086,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9674,7 +10096,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -9901,7 +10323,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -9911,7 +10333,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -9943,7 +10365,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9953,7 +10375,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -9985,7 +10407,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9995,7 +10417,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -10027,7 +10449,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10037,7 +10459,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -10069,7 +10491,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10079,7 +10501,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10111,7 +10533,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10121,7 +10543,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10153,7 +10575,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10163,7 +10585,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10194,7 +10616,9 @@
       <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -10202,7 +10626,9 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3" t="s">
+        <v>216</v>
+      </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
@@ -10213,9 +10639,7 @@
       <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -10223,9 +10647,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="3" t="s">
-        <v>121</v>
-      </c>
+      <c r="I48" s="3"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -10236,7 +10658,9 @@
       <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -10244,7 +10668,9 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>217</v>
+      </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -10254,10 +10680,8 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>70</v>
-      </c>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -10265,9 +10689,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="I50" s="3"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -10298,7 +10720,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10308,7 +10730,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -10320,9 +10742,7 @@
       <c r="Q52" s="5"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A53" s="3" t="s">
-        <v>126</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -10330,9 +10750,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="I53" s="3"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -10342,7 +10760,10 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -10350,7 +10771,9 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
@@ -10361,12 +10784,12 @@
       <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A55" s="14"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="3"/>
@@ -10380,7 +10803,9 @@
       <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -10388,7 +10813,9 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -10400,7 +10827,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10410,7 +10837,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -10422,9 +10849,6 @@
       <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -10432,9 +10856,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="I58" s="3"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
@@ -10445,15 +10867,15 @@
       <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
+      <c r="I59" s="3"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -10463,24 +10885,108 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="9"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
-      <c r="Q60" s="10"/>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="5"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="5"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="3"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -10500,90 +11006,295 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="8" max="8" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="43.625" customWidth="1"/>
+    <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
+      <c r="C1" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>138</v>
+      <c r="B2" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+        <v>134</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
+      <c r="D3" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>131</v>
+      <c r="B4" s="24" t="s">
+        <v>124</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+        <v>203</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>144</v>
-      </c>
+      <c r="B5" s="64" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="64" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="28">
+        <v>6</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="28">
+        <v>7</v>
+      </c>
+      <c r="B8" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="28">
+        <v>8</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="28">
+        <v>11</v>
+      </c>
+      <c r="B12" s="64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="28">
+        <v>12</v>
+      </c>
+      <c r="B13" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
+        <v>13</v>
+      </c>
+      <c r="B14" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="62"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -10593,10 +11304,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10609,10 +11320,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C1" s="17" t="s">
@@ -10621,40 +11332,40 @@
       <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="59" t="s">
+      <c r="E1" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="60"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="28">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="29">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
@@ -10662,167 +11373,187 @@
       <c r="E3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="29">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
-        <v>122</v>
+      <c r="B4" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>125</v>
+        <v>207</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="29">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="28">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C6" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="29">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="29">
+      <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>42</v>
+      <c r="B7" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>43</v>
+      <c r="B8" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>51</v>
+      <c r="F8" s="19" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>44</v>
+      <c r="B9" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="28">
+        <v>9</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="29">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="28">
+        <v>10</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30">
-        <v>10</v>
-      </c>
-      <c r="B11" s="26" t="s">
+    <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>11</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="21" t="s">
+      <c r="C12" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F12" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10880,7 +11611,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -10891,7 +11622,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -10902,7 +11633,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -10913,7 +11644,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -11006,7 +11737,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -11018,10 +11749,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A4" sqref="A4:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11032,109 +11763,117 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="60"/>
+      <c r="A3" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="59"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="30"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="31"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>161</v>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -11143,5 +11882,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -11,17 +11,18 @@
     <sheet name="画面項目定義書(ユーザ情報画面) " sheetId="5" r:id="rId2"/>
     <sheet name="画面項目定義書(社員一覧画面) " sheetId="6" r:id="rId3"/>
     <sheet name="画面項目定義書(社員情報編集画面)" sheetId="7" r:id="rId4"/>
-    <sheet name="エラーメッセージ一覧" sheetId="8" r:id="rId5"/>
-    <sheet name="model" sheetId="3" r:id="rId6"/>
-    <sheet name="プロジェクト階層" sheetId="1" state="hidden" r:id="rId7"/>
-    <sheet name="SQL" sheetId="9" r:id="rId8"/>
+    <sheet name="画面項目定義書(サイドバー)" sheetId="11" r:id="rId5"/>
+    <sheet name="エラーメッセージ一覧" sheetId="8" r:id="rId6"/>
+    <sheet name="model" sheetId="3" r:id="rId7"/>
+    <sheet name="プロジェクト階層" sheetId="1" state="hidden" r:id="rId8"/>
+    <sheet name="SQL" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="239">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -272,10 +273,6 @@
     <rPh sb="3" eb="5">
       <t>ジョウホウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1066,13 +1063,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者情報</t>
-    <rPh sb="0" eb="5">
-      <t>カンリシャジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Int</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1783,6 +1773,213 @@
     <rPh sb="23" eb="25">
       <t>シュトク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>05_sidebar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　'1. ログインアウトボタン押下</t>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2.画面遷移</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ログイン画面
+へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　2.登録判定</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-1. 入力されたパスワードを取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-2. 入力された名前を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-3. 選択された年齢を取得</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネンレイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-4. 選択された性別を取得</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-5 入力された生年月日を取得</t>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-6. 入力された連絡先を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>レンラクサキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-7. 入力されたメールアドレスを取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　'1. ユーザ新規登録へボタン押下</t>
+    <rPh sb="16" eb="18">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　ユーザ情報画面
+へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　'1. ユーザ情報へボタン押下</t>
+    <rPh sb="14" eb="16">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　社員一覧画面
+へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　社員情報編集画面
+へ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　'1. 管理者ページへボタン押下</t>
+    <rPh sb="15" eb="17">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-8. 入力された職業カテゴリを取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-9. 入力された入社日を取得</t>
+    <rPh sb="11" eb="13">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ニュウシャビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　　2-1-10. 選択された管理者情報を取得</t>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2310,7 +2507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2343,16 +2540,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2428,14 +2633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2473,7 +2671,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2737,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2810,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2866,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2939,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2814,7 +3012,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +3068,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2951,7 +3149,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3006,7 +3204,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3072,7 +3270,7 @@
         <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3153,7 +3351,7 @@
         <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3206,7 +3404,7 @@
         <xdr:cNvPr id="18" name="テキスト ボックス 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,7 +3475,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3541,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3416,7 +3614,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3472,7 +3670,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +3743,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3621,7 +3819,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +3875,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3758,7 +3956,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3813,7 +4011,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3879,7 +4077,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3934,7 +4132,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4000,7 +4198,7 @@
         <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4097,7 +4295,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4170,7 +4368,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4226,7 +4424,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,7 +4497,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4366,7 +4564,7 @@
         <xdr:cNvPr id="21" name="テキスト ボックス 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4432,7 +4630,7 @@
         <xdr:cNvPr id="22" name="正方形/長方形 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4505,7 +4703,7 @@
         <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4561,7 +4759,7 @@
         <xdr:cNvPr id="25" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4832,7 @@
         <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4715,7 +4913,7 @@
         <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4771,7 +4969,7 @@
         <xdr:cNvPr id="29" name="テキスト ボックス 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4974,7 +5172,7 @@
         <xdr:cNvPr id="37" name="正方形/長方形 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5047,7 +5245,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5103,7 +5301,7 @@
         <xdr:cNvPr id="39" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5176,7 +5374,7 @@
         <xdr:cNvPr id="40" name="テキスト ボックス 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5243,7 +5441,7 @@
         <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5324,7 +5522,7 @@
         <xdr:cNvPr id="49" name="テキスト ボックス 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5390,7 +5588,7 @@
         <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5445,7 +5643,7 @@
         <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5498,7 +5696,7 @@
         <xdr:cNvPr id="26" name="テキスト ボックス 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5564,7 +5762,7 @@
         <xdr:cNvPr id="31" name="正方形/長方形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5642,7 +5840,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5708,7 +5906,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5781,7 +5979,7 @@
         <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5837,7 +6035,7 @@
         <xdr:cNvPr id="5" name="正方形/長方形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5910,7 +6108,7 @@
         <xdr:cNvPr id="6" name="波線 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5992,7 +6190,7 @@
         <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6048,7 +6246,7 @@
         <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6129,7 +6327,7 @@
         <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6185,7 +6383,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6251,7 +6449,7 @@
         <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6304,7 +6502,7 @@
         <xdr:cNvPr id="14" name="テキスト ボックス 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6350,6 +6548,1007 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236052</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>108584</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="グループ化 17"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="236052" y="2145868"/>
+          <a:ext cx="3821598" cy="563041"/>
+          <a:chOff x="578952" y="1755343"/>
+          <a:chExt cx="3821598" cy="563041"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="578952" y="1783751"/>
+            <a:ext cx="1592748" cy="430810"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「ログアウト」ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="3" idx="3"/>
+            <a:endCxn id="5" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2171700" y="1999156"/>
+            <a:ext cx="1137005" cy="1821"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3308705" y="1755343"/>
+            <a:ext cx="1091845" cy="491267"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ログイン画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2228738" y="2084181"/>
+            <a:ext cx="771637" cy="234203"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面遷移</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236052</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80009</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="236052" y="1260043"/>
+          <a:ext cx="3897798" cy="563041"/>
+          <a:chOff x="588477" y="1755343"/>
+          <a:chExt cx="3897798" cy="563041"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="588477" y="1774225"/>
+            <a:ext cx="1592748" cy="483199"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「ユーザ情報へ」</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="21" idx="3"/>
+            <a:endCxn id="23" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2181225" y="2000977"/>
+            <a:ext cx="1127480" cy="14848"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3308705" y="1755343"/>
+            <a:ext cx="1177570" cy="491267"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ユーザ情報画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2228738" y="2084181"/>
+            <a:ext cx="893053" cy="234203"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面遷移</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>226527</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>60959</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4884252" y="1240993"/>
+          <a:ext cx="3907323" cy="563041"/>
+          <a:chOff x="578952" y="1755343"/>
+          <a:chExt cx="3907323" cy="563041"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="578952" y="1764701"/>
+            <a:ext cx="1592748" cy="492724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「ユーザ新規登録へ」</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="27" idx="3"/>
+            <a:endCxn id="29" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2171700" y="2000977"/>
+            <a:ext cx="1009650" cy="10086"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3181350" y="1755343"/>
+            <a:ext cx="1304925" cy="491267"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員情報編集画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2228738" y="2084181"/>
+            <a:ext cx="893053" cy="234203"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面遷移</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255102</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89534</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="35" name="グループ化 34"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4912827" y="2126651"/>
+          <a:ext cx="3907323" cy="563208"/>
+          <a:chOff x="578952" y="1755176"/>
+          <a:chExt cx="3907323" cy="563208"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="578952" y="1755176"/>
+            <a:ext cx="1592748" cy="492724"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>「管理者ページへ」</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ボタン押下</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="36" idx="3"/>
+            <a:endCxn id="38" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="2171700" y="2000977"/>
+            <a:ext cx="1137005" cy="561"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3308705" y="1755343"/>
+            <a:ext cx="1177570" cy="491267"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>社員一覧画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2228738" y="2084181"/>
+            <a:ext cx="893053" cy="234203"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>画面遷移</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6645,7 +7844,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:Q17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6658,316 +7857,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -6990,7 +8189,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7030,7 +8229,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7070,7 +8269,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7091,7 +8290,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -7112,7 +8311,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -7152,7 +8351,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -7192,7 +8391,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -7232,7 +8431,7 @@
     </row>
     <row r="34" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -7272,7 +8471,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -7293,7 +8492,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -7333,7 +8532,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -7355,14 +8554,14 @@
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
+        <v>73</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
@@ -7378,14 +8577,14 @@
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
@@ -7438,7 +8637,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -7459,7 +8658,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -7538,8 +8737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7552,316 +8751,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -7884,7 +9083,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -7892,7 +9091,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -7924,7 +9123,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -7964,7 +9163,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -7985,7 +9184,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8006,7 +9205,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8046,7 +9245,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8068,14 +9267,14 @@
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -8091,14 +9290,14 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="36"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+        <v>105</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -8160,7 +9359,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8200,7 +9399,7 @@
     </row>
     <row r="38" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8240,7 +9439,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -8261,7 +9460,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -8301,7 +9500,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -8341,7 +9540,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8381,7 +9580,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8402,7 +9601,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -8442,7 +9641,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8463,7 +9662,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8556,563 +9755,563 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="51"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="57"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="54"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="60"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="54"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="60"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="54"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="60"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="54"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="60"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="60"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="54"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="60"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="60"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
     </row>
     <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="53"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
     </row>
     <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
+      <c r="A33" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="54"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
@@ -9135,7 +10334,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -9144,7 +10343,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -9177,7 +10376,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9186,7 +10385,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -9200,7 +10399,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -9227,7 +10426,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -9248,7 +10447,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -9269,7 +10468,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -9283,7 +10482,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -9311,7 +10510,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -9325,7 +10524,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -9346,7 +10545,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -9355,7 +10554,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -9387,7 +10586,7 @@
     </row>
     <row r="47" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -9396,7 +10595,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -9428,7 +10627,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -9437,7 +10636,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -9451,7 +10650,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -9460,7 +10659,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -9492,7 +10691,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -9508,11 +10707,11 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13"/>
@@ -9542,7 +10741,7 @@
       <c r="A55" s="3"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="13"/>
@@ -9572,7 +10771,7 @@
       <c r="A57" s="3"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="13"/>
@@ -9588,7 +10787,7 @@
       <c r="A58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="13"/>
@@ -9628,7 +10827,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -9648,8 +10847,8 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="35" t="s">
-        <v>156</v>
+      <c r="H61" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -9740,8 +10939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9754,316 +10953,316 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="39"/>
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="48"/>
+      <c r="A5" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="54"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="54"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="54"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="54"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="54"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="54"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="52"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="54"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="52"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="54"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
     </row>
     <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
     </row>
     <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
+      <c r="A20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
@@ -10086,7 +11285,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -10096,7 +11295,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -10109,7 +11308,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -10119,7 +11318,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -10151,7 +11350,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -10161,7 +11360,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -10193,7 +11392,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -10203,7 +11402,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -10216,7 +11415,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -10226,7 +11425,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -10239,7 +11438,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -10249,7 +11448,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -10281,7 +11480,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -10291,7 +11490,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="3" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -10323,7 +11522,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -10333,7 +11532,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -10365,7 +11564,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -10375,7 +11574,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -10407,7 +11606,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -10417,7 +11616,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -10449,7 +11648,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10459,7 +11658,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -10491,7 +11690,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10501,7 +11700,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -10533,7 +11732,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10543,7 +11742,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -10575,7 +11774,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10585,7 +11784,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10617,7 +11816,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10627,7 +11826,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -10659,7 +11858,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10668,9 +11867,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="I49" s="3"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
@@ -10720,7 +11917,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10730,7 +11927,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -10762,7 +11959,7 @@
     </row>
     <row r="54" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -10772,7 +11969,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -10804,7 +12001,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -10814,7 +12011,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -10827,7 +12024,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -10837,7 +12034,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -10906,7 +12103,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -10916,7 +12113,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -10929,7 +12126,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -10939,7 +12136,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -11006,6 +12203,837 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="8.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="54"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="60"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="60"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="60"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="60"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+      <c r="Q12" s="60"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="60"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="60"/>
+    </row>
+    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="61"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="54"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="3"/>
+      <c r="B25" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="3"/>
+      <c r="B31" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="5"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="K33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3"/>
+      <c r="B34" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="3"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="5"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="5"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="5"/>
+    </row>
+    <row r="45" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="A5:Q5"/>
+    <mergeCell ref="A6:Q17"/>
+    <mergeCell ref="A20:Q20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11023,19 +13051,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>125</v>
+      <c r="D1" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -11043,16 +13071,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -11060,16 +13088,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -11077,190 +13105,190 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>175</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="C6" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>176</v>
-      </c>
       <c r="E6" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="28">
         <v>6</v>
       </c>
-      <c r="B7" s="64" t="s">
-        <v>177</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>185</v>
+      <c r="B7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>183</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="28">
         <v>7</v>
       </c>
-      <c r="B8" s="64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>202</v>
+      <c r="B8" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="28">
         <v>8</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="61" t="s">
+      <c r="B9" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="D9" s="61" t="s">
-        <v>186</v>
-      </c>
       <c r="E9" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="28">
         <v>9</v>
       </c>
-      <c r="B10" s="64" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="61" t="s">
-        <v>188</v>
+      <c r="B10" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>186</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="28">
         <v>10</v>
       </c>
-      <c r="B11" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="61" t="s">
+      <c r="B11" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="61" t="s">
-        <v>196</v>
-      </c>
       <c r="E11" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="28">
         <v>11</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="61" t="s">
-        <v>199</v>
+      <c r="B12" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>197</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="28">
         <v>12</v>
       </c>
-      <c r="B13" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>200</v>
+      <c r="B13" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>201</v>
+      <c r="B14" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>199</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="62"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -11302,12 +13330,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11316,15 +13344,15 @@
     <col min="2" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
-    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>29</v>
@@ -11332,10 +13360,10 @@
       <c r="D1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="59"/>
+      <c r="F1" s="65"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="27">
@@ -11348,13 +13376,13 @@
         <v>30</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -11365,13 +13393,13 @@
         <v>39</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>51</v>
@@ -11382,19 +13410,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="F4" s="19" t="s">
         <v>206</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -11402,19 +13430,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -11425,13 +13453,13 @@
         <v>40</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>50</v>
@@ -11445,13 +13473,13 @@
         <v>41</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>50</v>
@@ -11465,13 +13493,13 @@
         <v>42</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>50</v>
@@ -11485,13 +13513,13 @@
         <v>43</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>51</v>
@@ -11505,13 +13533,13 @@
         <v>44</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>52</v>
@@ -11534,7 +13562,7 @@
         <v>50</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11545,16 +13573,16 @@
         <v>53</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>78</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -11567,7 +13595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
@@ -11611,7 +13639,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -11622,7 +13650,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -11633,7 +13661,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -11644,7 +13672,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -11737,7 +13765,7 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -11747,133 +13775,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="27.5" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="65"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="59"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="33" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="18" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="B7" s="19" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>151</v>
-      </c>
-    </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="30" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="30"/>
+      <c r="A15" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="34"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="32" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>150</v>
+        <v>139</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="画面項目定義書(ログイン画面)" sheetId="4" r:id="rId1"/>
@@ -15,1972 +15,736 @@
     <sheet name="エラーメッセージ一覧" sheetId="8" r:id="rId6"/>
     <sheet name="model" sheetId="3" r:id="rId7"/>
     <sheet name="プロジェクト階層" sheetId="1" state="hidden" r:id="rId8"/>
-    <sheet name="SQL" sheetId="9" r:id="rId9"/>
+    <sheet name="SQL" state="hidden" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>プロジェクト名</t>
-    <rPh sb="6" eb="7">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>employee_info</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>src/main/java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>com.example.demo</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>controller</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>config</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>model</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SecurityController.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>SecurityConfig.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UserList.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>repository</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UserListRepository.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>util</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>validator</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UserDetailsServiceImpl.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Role.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Type.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UniqueLogin.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UniqueLoginValidator.java</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>src/main/resource</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>static</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>css</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>templates</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>fragments</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>base.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>sidebar.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>login.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>error.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>変数名</t>
-    <rPh sb="0" eb="3">
-      <t>ヘンスウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>型名</t>
-    <rPh sb="0" eb="2">
-      <t>カタメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員番号</t>
-    <rPh sb="0" eb="4">
-      <t>シャインバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>生年月日</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>連絡先</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メールアドレス</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>職業カテゴリ</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入社日</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DB先</t>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>user_info.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>employee_show.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>employee_edit.jsp</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワード</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者情報</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>共通設定項目</t>
-    <rPh sb="0" eb="2">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウモク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>01_login</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>機能名</t>
-    <rPh sb="0" eb="3">
-      <t>キノウメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログイン機能</t>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>処理概要</t>
-    <rPh sb="0" eb="4">
-      <t>ショリガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>プログラム設計</t>
-    <rPh sb="5" eb="7">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. ログインボタン押下</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　2.ログイン判定</t>
-    <rPh sb="7" eb="9">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">    　2-1. テキスト情報取得</t>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-1.入力された IDを取得</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-2. 入力されたパスワードを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　2-2. データベース(UserLoginテーブル)情報を取得</t>
-    <rPh sb="28" eb="30">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-2-1. データベースオープン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-2-2. レコード検索</t>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : select ** from ** Where ** {id} ** {password}</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　select文 : select ** from ** Where ** {id} ** {password}</t>
   </si>
   <si>
     <t xml:space="preserve">             2-2-3. ログイン判定</t>
-    <rPh sb="24" eb="26">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レコード有</t>
-    <rPh sb="4" eb="5">
-      <t>アリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レコード無</t>
-    <rPh sb="4" eb="5">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">エラーメッセージ : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ログインに失敗しました</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。</t>
-    </r>
-    <rPh sb="16" eb="18">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーメッセージ : ログインに失敗しました。</t>
   </si>
   <si>
     <t xml:space="preserve">  3.画面遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>UserLogin</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Employee</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>02_user_info</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>03_employee_show</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>04_employee_edit</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員情報編集機能</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザ情報編集機能</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. 編集ボタン押下</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-1.入力されたパスワードを取得</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>ユーザ情報画面へ 【</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>参照→3.画面遷移</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>】</t>
-    </r>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ガメンセンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ情報画面へ 【参照→3.画面遷移】</t>
   </si>
   <si>
     <t>　2.編集判定</t>
-    <rPh sb="3" eb="5">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. 新規追加ボタン押下</t>
-    <rPh sb="5" eb="9">
-      <t>シンキツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">   2.画面遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">　　  社員情報編集画面へ
 </t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. 削除ボタン押下</t>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　'1. 編集ボタン押下</t>
-    <rPh sb="5" eb="7">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">   3.画面遷移</t>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　2-1. データベース(UserLogin/Employeeテーブル)情報を取得</t>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-1.データベースオープン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　2.情報取得</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-2. レコード検索</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. 登録ボタン押下</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　2.更新判定</t>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　ユーザ情報画面へ</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　2.削除処理</t>
-    <rPh sb="3" eb="5">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">   　　    　2-1-2.文字数判定</t>
-    <rPh sb="16" eb="19">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>エラーメッセージ : 文字数を**にしてください。</t>
-    <rPh sb="11" eb="14">
-      <t>モジスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>問題なし</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>問題あり</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　2-2. データベース(UserLoginテーブル)情報を更新</t>
-    <rPh sb="29" eb="31">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>select文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : select ** from ** Where ** {id}</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　select文 : select ** from ** Where ** {id}</t>
   </si>
   <si>
     <t>　　　　2-3-1. データベースオープン</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-3-2. レコード検索</t>
-    <rPh sb="15" eb="17">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　  　2-3. データベース(UserLogin/Employeeテーブル)情報を取得</t>
-    <rPh sb="39" eb="41">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　2-2. データベース(UserLogin/Employeeテーブル)情報を削除</t>
-    <rPh sb="38" eb="40">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　update文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : update ** set ** Where ** {id}</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　update文 : update ** set ** Where ** {id}</t>
   </si>
   <si>
     <t>　　2-2. データベース(UserLogin/Employeeテーブル)情報に新規追加</t>
-    <rPh sb="37" eb="39">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>年齢</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>age</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　insert文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : insert into ** (*****) values (*****)</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　insert文 : insert into ** (*****) values (*****)</t>
   </si>
   <si>
     <t>　　社員情報画面から新規追加ボタンからの遷移</t>
-    <rPh sb="10" eb="14">
-      <t>シンキツイカ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　社員情報画面へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　社員情報画面から編集ボタンからの遷移</t>
-    <rPh sb="10" eb="12">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>application.properties</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワードエラー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>全体のコントローラー</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>アクセス操作</t>
-    <rPh sb="4" eb="6">
-      <t>ソウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レポジトリ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>全体のモデル</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IDエラー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログインエラー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>エラーメッセージ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログインに失敗しました。</t>
-    <rPh sb="5" eb="7">
-      <t>シッパイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ログイン画面</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員情報編集画面</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IDが重複しています。</t>
-    <rPh sb="3" eb="5">
-      <t>チョウフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　ユーザ情報画面へ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザー情報(LoginUser)</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員情報テーブル(Employee)</t>
-    <rPh sb="0" eb="4">
-      <t>シャインジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>TEXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>update文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : update **{password} set ** Where ** {id}</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>　delete文</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : delete ** from ** Where ** {id}</t>
-    </r>
-    <rPh sb="20" eb="21">
-      <t>ブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">             　update文 : update **{password} set ** Where ** {id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             　delete文 : delete ** from ** Where ** {id}</t>
   </si>
   <si>
     <t>2-2. データベース情報を更新へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">　　社員一覧画面へ
 </t>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>birthday</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>tel</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>adress</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>category</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>joined_day</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>admin_auth</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>社員一覧/削除機能</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>DB(employee_managemen)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>性別</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>判定</t>
-    <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>既存に存在するIDと同じ場合</t>
-    <rPh sb="0" eb="2">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID・パスワードが違う場合</t>
-    <rPh sb="9" eb="10">
-      <t>チガ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>社員情報編集画面</t>
   </si>
   <si>
     <t>ユーザ情報画面/社員情報編集画面</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ID空白エラー</t>
-    <rPh sb="2" eb="4">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワード空白エラー</t>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IDが空白の場合</t>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワードが空白の場合</t>
-    <rPh sb="6" eb="8">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>年齢空白エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IDが入力されていません</t>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワードが入力されていません</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>年齢が入力されていません</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>性別が選択されていません</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>性別空選択</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>生年月日空白エラー</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>生年月日が入力されていません</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>年齢が空白の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>生年月日が空白の場合</t>
-    <rPh sb="0" eb="4">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>連絡先が入力されていません</t>
-    <rPh sb="0" eb="2">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>連絡先が空白の場合</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>職業空白エラー</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メールアドレス空白エラー</t>
-    <rPh sb="7" eb="9">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>連絡先空白エラー</t>
-    <rPh sb="0" eb="2">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入社日空白エラー</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者選択空白エラー</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>クウハク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メードアドレスが入力されていまさん</t>
-    <rPh sb="8" eb="10">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>職業が入力されていません</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メールアドレスが空白の場合</t>
-    <rPh sb="8" eb="10">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入社日が入力されていません</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者が選択されていません</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>職業が空白の場合</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>入社日が空白の場合</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウハク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>管理者のボタンが空の場合</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ソラ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>性別のボタンが空の場合</t>
-    <rPh sb="0" eb="2">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カラ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワードの文字数を8文字以上12文字以下にしてください。</t>
-    <rPh sb="6" eb="9">
-      <t>モジスウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>7文字未満/13文字以上の場合</t>
-    <rPh sb="1" eb="3">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Employee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-3. 入力された名前を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-4. 選択された年齢を取得</t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-5. 選択された性別を取得</t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-6. 入力された生年月日を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-7. 入力された連絡先を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-8. 入力されたメールアドレスを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-9. 入力された職業カテゴリを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-10. 入力された入社日を取得</t>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-11. 選択された管理者情報を取得</t>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>05_sidebar</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. ログインアウトボタン押下</t>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t xml:space="preserve">  2.画面遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　ログイン画面
 へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　2.登録判定</t>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-1. 入力されたパスワードを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-2. 入力された名前を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-3. 選択された年齢を取得</t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ネンレイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-4. 選択された性別を取得</t>
-    <rPh sb="11" eb="13">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-5 入力された生年月日を取得</t>
-    <rPh sb="10" eb="12">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>セイネンガッピ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-6. 入力された連絡先を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-7. 入力されたメールアドレスを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. ユーザ新規登録へボタン押下</t>
-    <rPh sb="16" eb="18">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　ユーザ情報画面
 へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. ユーザ情報へボタン押下</t>
-    <rPh sb="14" eb="16">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　社員一覧画面
 へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　社員情報編集画面
 へ</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>サイドバー</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　'1. 管理者ページへボタン押下</t>
-    <rPh sb="15" eb="17">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-8. 入力された職業カテゴリを取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-9. 入力された入社日を取得</t>
-    <rPh sb="11" eb="13">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>ニュウシャビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>　　　　2-1-10. 選択された管理者情報を取得</t>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日(年)</t>
+  </si>
+  <si>
+    <t>生年月日(月)</t>
+  </si>
+  <si>
+    <t>生年月日(日)</t>
+  </si>
+  <si>
+    <t>birthday_year</t>
+  </si>
+  <si>
+    <t>birthday_month</t>
+  </si>
+  <si>
+    <t>birthday_date</t>
+  </si>
+  <si>
+    <t>入社日(年)</t>
+  </si>
+  <si>
+    <t>入社日(月)</t>
+  </si>
+  <si>
+    <t>入社日(日)</t>
+  </si>
+  <si>
+    <t>joined_day_year</t>
+  </si>
+  <si>
+    <t>joined_day_month</t>
+  </si>
+  <si>
+    <t>joined_day_date</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>9-1</t>
+  </si>
+  <si>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>別のファイルにて分割</t>
+  </si>
+  <si>
+    <t>参考：</t>
+  </si>
+  <si>
+    <t>https://qiita.com/ayaka105/items/1a68ed7ad84743dde7d5</t>
+  </si>
+  <si>
+    <t>Javaの日付データ変換</t>
   </si>
 </sst>
 </file>
@@ -2656,31 +1420,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1001917</xdr:colOff>
+      <xdr:colOff>1000125</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>32664</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>193525</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>103039</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19669043">
-          <a:off x="4630942" y="1604289"/>
-          <a:ext cx="906108" cy="241825"/>
+          <a:off x="4629150" y="1600200"/>
+          <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2722,31 +1480,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>178902</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>88301</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123601</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="855177" y="2974376"/>
-          <a:ext cx="1516324" cy="630835"/>
+          <a:off x="847725" y="2171700"/>
+          <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,34 +1547,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>126458</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>157637</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159457</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374358" y="3281837"/>
-          <a:ext cx="1639197" cy="1820"/>
+          <a:off x="2371725" y="2409825"/>
+          <a:ext cx="1638300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2851,31 +1594,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36810</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013555" y="2945968"/>
-          <a:ext cx="1521087" cy="691292"/>
+          <a:off x="4010025" y="2143125"/>
+          <a:ext cx="1524000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2924,31 +1661,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176998</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>156604</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>173186</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8263723" y="2805112"/>
-          <a:ext cx="1351206" cy="968524"/>
+          <a:off x="8258175" y="2066925"/>
+          <a:ext cx="1352550" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst/>
@@ -2997,34 +1728,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159457</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176045</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>167079</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534642" y="3283657"/>
-          <a:ext cx="2728128" cy="7622"/>
+          <a:off x="5534025" y="2409825"/>
+          <a:ext cx="2724150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3053,31 +1775,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>252744</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>89750</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>562143</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>24707</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5596269" y="975575"/>
-          <a:ext cx="995199" cy="792207"/>
+          <a:off x="5591175" y="971550"/>
+          <a:ext cx="1000125" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3134,7 +1850,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116374</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
@@ -3142,25 +1858,17 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="5" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4774099" y="1657350"/>
-          <a:ext cx="836126" cy="488518"/>
+          <a:off x="4772025" y="1657350"/>
+          <a:ext cx="838200" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3189,31 +1897,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>428513</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>45831</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>635766</xdr:colOff>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457838" y="2474706"/>
-          <a:ext cx="893053" cy="234203"/>
+          <a:off x="6448425" y="2466975"/>
+          <a:ext cx="895350" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3255,31 +1957,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>167019</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>108800</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476418</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>43757</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="フローチャート: 磁気ディスク 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7567944" y="994625"/>
-          <a:ext cx="995199" cy="792207"/>
+          <a:off x="7562850" y="990600"/>
+          <a:ext cx="1000125" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3336,7 +2032,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>554524</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
@@ -3344,23 +2040,17 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>50368</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6583849" y="1695450"/>
-          <a:ext cx="998051" cy="612343"/>
+          <a:off x="6581775" y="1695450"/>
+          <a:ext cx="1000125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3389,31 +2079,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>544718</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>146964</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>79226</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45889</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19672549">
-          <a:off x="6574043" y="1718589"/>
-          <a:ext cx="906108" cy="241825"/>
+          <a:off x="6572250" y="1714500"/>
+          <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3460,31 +2144,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>240558</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>116390</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>460866</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>9871</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18916159">
-          <a:off x="5574558" y="1830890"/>
-          <a:ext cx="903867" cy="229657"/>
+          <a:off x="5581650" y="1857375"/>
+          <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3526,31 +2204,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>178902</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>88301</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123601</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="855177" y="2174276"/>
-          <a:ext cx="1516324" cy="430810"/>
+          <a:off x="847725" y="2171700"/>
+          <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,34 +2271,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>126458</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>157637</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159457</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374358" y="2415062"/>
-          <a:ext cx="1639197" cy="1820"/>
+          <a:off x="2371725" y="2409825"/>
+          <a:ext cx="1638300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3655,31 +2318,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36810</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013555" y="2145868"/>
-          <a:ext cx="1521087" cy="491267"/>
+          <a:off x="4010025" y="2143125"/>
+          <a:ext cx="1524000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3728,31 +2385,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176998</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>447676</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>1736</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8263723" y="2071687"/>
-          <a:ext cx="1642278" cy="701824"/>
+          <a:off x="8258175" y="2066925"/>
+          <a:ext cx="1647825" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst>
@@ -3804,34 +2455,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>134077</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>188576</xdr:colOff>
+      <xdr:colOff>180975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>165174</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534642" y="2391502"/>
-          <a:ext cx="2740659" cy="31097"/>
+          <a:off x="5534025" y="2390775"/>
+          <a:ext cx="2733675" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3860,31 +2502,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145730</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>455129</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4796171" y="941294"/>
-          <a:ext cx="992958" cy="840441"/>
+          <a:off x="4800600" y="952500"/>
+          <a:ext cx="990600" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -3943,31 +2579,23 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>154641</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331747</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5524500" y="1364876"/>
-          <a:ext cx="824806" cy="730624"/>
+          <a:off x="5534025" y="1381125"/>
+          <a:ext cx="819150" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3996,31 +2624,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>478939</xdr:colOff>
+      <xdr:colOff>476250</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>59838</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>392</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>122592</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6496498" y="2446691"/>
-          <a:ext cx="888570" cy="230842"/>
+          <a:off x="6505575" y="2486025"/>
+          <a:ext cx="895350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4062,33 +2684,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>414618</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>151280</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145730</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>33619</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4034118" y="1361515"/>
-          <a:ext cx="762053" cy="722780"/>
+          <a:off x="4038600" y="1371600"/>
+          <a:ext cx="762000" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4117,31 +2731,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>449918</xdr:colOff>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>77361</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>679575</xdr:colOff>
+      <xdr:colOff>676275</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>140787</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18767331">
-          <a:off x="3732313" y="1456613"/>
-          <a:ext cx="903867" cy="229657"/>
+          <a:off x="3733800" y="1476375"/>
+          <a:ext cx="914400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4183,31 +2791,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>331747</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>62752</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>641146</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="フローチャート: 磁気ディスク 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6349306" y="936811"/>
-          <a:ext cx="992958" cy="856130"/>
+          <a:off x="6353175" y="942975"/>
+          <a:ext cx="1000125" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4280,31 +2882,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>151687</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47479</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>96387</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>140833</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="151687" y="1816408"/>
-          <a:ext cx="1509521" cy="447139"/>
+          <a:off x="142875" y="1781175"/>
+          <a:ext cx="1514475" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4353,34 +2949,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>96387</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>94157</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>639641</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>97139</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1661208" y="2039978"/>
-          <a:ext cx="1223612" cy="2982"/>
+          <a:off x="1657350" y="2000250"/>
+          <a:ext cx="1228725" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4409,31 +2996,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>639641</xdr:colOff>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>89126</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>605640</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>105151</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2884820" y="1681162"/>
-          <a:ext cx="1340320" cy="723596"/>
+          <a:off x="2886075" y="1657350"/>
+          <a:ext cx="1343025" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst/>
@@ -4482,31 +3063,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>224405</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25421</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>426214</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88174</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1789226" y="2148135"/>
-          <a:ext cx="882167" cy="239646"/>
+          <a:off x="1781175" y="2105025"/>
+          <a:ext cx="885825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4549,31 +3124,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>517504</xdr:colOff>
+      <xdr:colOff>514350</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>16334</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>384026</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>86709</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="テキスト ボックス 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19853309">
-          <a:off x="4137004" y="3554191"/>
-          <a:ext cx="900665" cy="247268"/>
+          <a:off x="4143375" y="3476625"/>
+          <a:ext cx="895350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4615,31 +3184,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>178902</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>88300</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123601</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="859259" y="4333729"/>
-          <a:ext cx="1509521" cy="447138"/>
+          <a:off x="847725" y="4238625"/>
+          <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4688,34 +3251,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123601</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>134977</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421927</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>165174</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2368780" y="4557298"/>
-          <a:ext cx="4067504" cy="30197"/>
+          <a:off x="2362200" y="4457700"/>
+          <a:ext cx="4086225" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4744,31 +3298,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>421927</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401533</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>173185</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6436284" y="4225697"/>
-          <a:ext cx="1340320" cy="723595"/>
+          <a:off x="6448425" y="4133850"/>
+          <a:ext cx="1352550" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst/>
@@ -4817,31 +3365,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101705</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107437</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>42394</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="フローチャート: 磁気ディスク 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5435705" y="3114616"/>
-          <a:ext cx="1694437" cy="819421"/>
+          <a:off x="5438775" y="3057525"/>
+          <a:ext cx="1704975" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4898,34 +3440,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>192865</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>163363</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101705</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>77414</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="31" idx="0"/>
-          <a:endCxn id="27" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3812365" y="3524327"/>
-          <a:ext cx="1623340" cy="798516"/>
+          <a:off x="3819525" y="3457575"/>
+          <a:ext cx="1619250" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4954,31 +3487,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>88334</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>79850</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>290144</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>142603</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4741977" y="4679064"/>
-          <a:ext cx="882167" cy="239646"/>
+          <a:off x="4743450" y="4572000"/>
+          <a:ext cx="885825" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5021,25 +3548,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>612321</xdr:colOff>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="40821" y="938893"/>
-          <a:ext cx="1251857" cy="326571"/>
+          <a:off x="38100" y="933450"/>
+          <a:ext cx="1247775" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5089,25 +3616,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>46264</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>73480</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>141515</xdr:colOff>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>127909</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="テキスト ボックス 31"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46264" y="3080659"/>
-          <a:ext cx="775608" cy="231321"/>
+          <a:off x="38100" y="3019425"/>
+          <a:ext cx="771525" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5157,31 +3684,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>68037</xdr:colOff>
+      <xdr:colOff>66675</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>36594</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330431</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>129947</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5402037" y="2159308"/>
-          <a:ext cx="1623108" cy="447139"/>
+          <a:off x="5410200" y="2114550"/>
+          <a:ext cx="1628775" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5230,34 +3751,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>330431</xdr:colOff>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83271</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465470</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>86253</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="37" idx="3"/>
-          <a:endCxn id="39" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7025145" y="2382878"/>
-          <a:ext cx="2176111" cy="2982"/>
+          <a:off x="7038975" y="2333625"/>
+          <a:ext cx="2190750" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5286,31 +3798,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>465470</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>78241</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>445076</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>94265</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9201256" y="2024062"/>
-          <a:ext cx="1340320" cy="723596"/>
+          <a:off x="9229725" y="1990725"/>
+          <a:ext cx="1352550" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst/>
@@ -5359,31 +3865,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>213520</xdr:colOff>
+      <xdr:colOff>209550</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>28142</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>415329</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90895</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="テキスト ボックス 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="テキスト ボックス 39"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7588591" y="2504642"/>
-          <a:ext cx="882167" cy="239646"/>
+          <a:off x="7610475" y="2447925"/>
+          <a:ext cx="885825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5426,31 +3926,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>567068</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>150981</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>220434</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85937</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="47" name="フローチャート: 磁気ディスク 46"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9302854" y="1035445"/>
-          <a:ext cx="1694437" cy="819421"/>
+          <a:off x="9334500" y="1028700"/>
+          <a:ext cx="1714500" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -5507,31 +4001,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>656294</xdr:colOff>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>168732</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>196244</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>62214</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19379683">
-          <a:off x="8031365" y="1583875"/>
-          <a:ext cx="900665" cy="247268"/>
+          <a:off x="8048625" y="1562100"/>
+          <a:ext cx="914400" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5575,31 +4063,23 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30013</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>567068</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7946571" y="1445156"/>
-          <a:ext cx="1356283" cy="922487"/>
+          <a:off x="7972425" y="1428750"/>
+          <a:ext cx="1362075" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5628,31 +4108,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>830039</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4449539" y="3850821"/>
-          <a:ext cx="1047747" cy="503465"/>
+          <a:off x="4457700" y="3771900"/>
+          <a:ext cx="1047750" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5681,31 +4155,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>114727</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>62597</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335035</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>132972</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="テキスト ボックス 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19873217">
-          <a:off x="4768370" y="4131133"/>
-          <a:ext cx="900665" cy="247268"/>
+          <a:off x="4772025" y="4038600"/>
+          <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5747,31 +4215,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>222444</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>77414</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>843642</xdr:colOff>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>170767</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3161587" y="4322843"/>
-          <a:ext cx="1301555" cy="447138"/>
+          <a:off x="3162300" y="4229100"/>
+          <a:ext cx="1304925" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5825,25 +4287,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>120173</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>88455</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>340481</xdr:colOff>
+      <xdr:colOff>333375</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>158829</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5891,25 +4347,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>178902</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>88301</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>123601</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5964,29 +4414,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>126458</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>157637</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159457</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
@@ -6020,25 +4461,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>384530</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36810</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6093,25 +4528,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176998</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>156604</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>173186</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="波線 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39EA783-011B-45FA-8D24-22224543DF13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="波線 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6175,29 +4604,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>191117</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>159457</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>176045</xdr:colOff>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>167079</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E424DF-9DFC-43BB-A310-ABF1A5E85690}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
@@ -6231,25 +4651,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47276</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>33961</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>362118</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>140368</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924DCC4D-7296-4898-AC44-693C781E881F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="フローチャート: 磁気ディスク 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6312,29 +4726,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>116374</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>87165</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47276</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="0"/>
-          <a:endCxn id="8" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
@@ -6368,25 +4773,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>564585</xdr:colOff>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>25421</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86038</xdr:colOff>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>88174</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6444,15 +4843,9 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
+    <xdr:cxnSp>
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE714D7-319E-4BAD-AC82-9A703E89AC23}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6487,25 +4880,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95251</xdr:colOff>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>313318</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>77257</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A95D593A-72DA-42DD-AA2B-53888D763625}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6558,15 +4945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236052</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>59893</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>108584</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6575,21 +4962,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="236052" y="2145868"/>
-          <a:ext cx="3821598" cy="563041"/>
+          <a:off x="228600" y="2143125"/>
+          <a:ext cx="3829050" cy="561975"/>
           <a:chOff x="578952" y="1755343"/>
           <a:chExt cx="3821598" cy="563041"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6639,19 +5020,10 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
+      <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="3" idx="3"/>
-            <a:endCxn id="5" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm>
@@ -6680,15 +5052,9 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6738,15 +5104,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="テキスト ボックス 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="10" name="テキスト ボックス 9"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6795,15 +5155,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>236052</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>31318</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80009</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6812,21 +5172,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="236052" y="1260043"/>
-          <a:ext cx="3897798" cy="563041"/>
+          <a:off x="228600" y="1257300"/>
+          <a:ext cx="3905250" cy="561975"/>
           <a:chOff x="588477" y="1755343"/>
           <a:chExt cx="3897798" cy="563041"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6892,19 +5246,10 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
+      <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="21" idx="3"/>
-            <a:endCxn id="23" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvPr id="22" name="直線矢印コネクタ 21"/>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
@@ -6933,15 +5278,9 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6991,15 +5330,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="テキスト ボックス 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="24" name="テキスト ボックス 23"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7048,15 +5381,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>226527</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>12268</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>60959</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7065,21 +5398,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4884252" y="1240993"/>
-          <a:ext cx="3907323" cy="563041"/>
+          <a:off x="4876800" y="1238250"/>
+          <a:ext cx="3914775" cy="561975"/>
           <a:chOff x="578952" y="1755343"/>
           <a:chExt cx="3907323" cy="563041"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="27" name="正方形/長方形 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="27" name="正方形/長方形 26"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7145,19 +5472,10 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
+      <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="直線矢印コネクタ 27">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="27" idx="3"/>
-            <a:endCxn id="29" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
@@ -7186,15 +5504,9 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7244,15 +5556,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="テキスト ボックス 29">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="30" name="テキスト ボックス 29"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7301,15 +5607,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>255102</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>40676</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>89534</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7318,21 +5624,15 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4912827" y="2126651"/>
-          <a:ext cx="3907323" cy="563208"/>
+          <a:off x="4905375" y="2124075"/>
+          <a:ext cx="3914775" cy="561975"/>
           <a:chOff x="578952" y="1755176"/>
           <a:chExt cx="3907323" cy="563208"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="正方形/長方形 35">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B26E1D8-713A-4BF6-B82F-9E84BFCF068F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7398,19 +5698,10 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp macro="">
+      <xdr:cxnSp>
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="直線矢印コネクタ 36">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F86CCDE-FE5A-4FF5-BAC4-0133C8CD861F}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="36" idx="3"/>
-            <a:endCxn id="38" idx="1"/>
-          </xdr:cNvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+          <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
           <a:xfrm flipV="1">
@@ -7439,15 +5730,9 @@
           </a:fontRef>
         </xdr:style>
       </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0D18DF-025F-41DB-96BB-221B78F44C62}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7497,15 +5782,9 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
+      <xdr:sp>
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="テキスト ボックス 38">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B330B1C4-8B82-4BEF-910E-8C0CEEA141A0}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
+          <xdr:cNvPr id="39" name="テキスト ボックス 38"/>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7843,11 +6122,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="false" zoomScaleNormal="100" workbookViewId="0" topLeftCell="A16">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -7856,9 +6135,9 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -7868,12 +6147,12 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -7882,12 +6161,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -7896,10 +6175,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14"/>
+    <row r="5" ht="14">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -7918,7 +6197,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -7937,7 +6216,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -7956,7 +6235,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -7975,7 +6254,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -7994,7 +6273,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -8013,7 +6292,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -8032,7 +6311,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -8051,7 +6330,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -8070,7 +6349,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -8089,7 +6368,7 @@
       <c r="P14" s="59"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -8108,7 +6387,7 @@
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -8127,7 +6406,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -8146,10 +6425,10 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14"/>
+    <row r="20" ht="14">
       <c r="A20" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -8168,7 +6447,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="54"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -8187,9 +6466,9 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -8208,7 +6487,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -8227,9 +6506,9 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -8248,7 +6527,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -8267,9 +6546,9 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -8288,9 +6567,9 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -8309,9 +6588,9 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -8330,7 +6609,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -8349,9 +6628,9 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -8370,7 +6649,7 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -8389,9 +6668,9 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -8410,7 +6689,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -8429,9 +6708,9 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="18">
       <c r="A34" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -8450,7 +6729,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -8469,9 +6748,9 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8490,9 +6769,9 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8511,7 +6790,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8530,9 +6809,9 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -8551,13 +6830,13 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D40" s="42"/>
       <c r="E40" s="42"/>
@@ -8574,13 +6853,13 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D41" s="42"/>
       <c r="E41" s="42"/>
@@ -8597,7 +6876,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="7"/>
       <c r="C42" s="4"/>
@@ -8616,7 +6895,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -8635,9 +6914,9 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -8656,9 +6935,9 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8677,7 +6956,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -8696,7 +6975,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="14">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -8717,14 +6996,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q17"/>
     <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="C41:F41"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8741,7 +7020,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -8750,9 +7029,9 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -8762,12 +7041,12 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -8776,12 +7055,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -8790,10 +7069,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14"/>
+    <row r="5" ht="14">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -8812,7 +7091,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -8831,7 +7110,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -8850,7 +7129,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -8869,7 +7148,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -8888,7 +7167,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -8907,7 +7186,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -8926,7 +7205,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -8945,7 +7224,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -8964,7 +7243,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -8983,7 +7262,7 @@
       <c r="P14" s="59"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -9002,7 +7281,7 @@
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -9021,7 +7300,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -9040,10 +7319,10 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14"/>
+    <row r="20" ht="14">
       <c r="A20" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -9062,7 +7341,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="54"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -9081,9 +7360,9 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -9102,7 +7381,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -9121,9 +7400,9 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -9142,7 +7421,7 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -9161,9 +7440,9 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -9182,9 +7461,9 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -9203,9 +7482,9 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -9224,7 +7503,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -9243,9 +7522,9 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -9264,13 +7543,13 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="3"/>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="42"/>
@@ -9287,13 +7566,13 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -9310,7 +7589,7 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="3"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -9324,7 +7603,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="3"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -9338,7 +7617,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="14"/>
       <c r="C35" s="13"/>
@@ -9357,9 +7636,9 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -9378,7 +7657,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -9397,9 +7676,9 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" customHeight="1" ht="18">
       <c r="A38" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -9418,7 +7697,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -9437,9 +7716,9 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -9458,9 +7737,9 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -9479,7 +7758,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -9498,9 +7777,9 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -9519,7 +7798,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -9538,9 +7817,9 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -9559,7 +7838,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -9578,9 +7857,9 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -9599,9 +7878,9 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -9620,7 +7899,7 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -9639,9 +7918,9 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -9660,9 +7939,9 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="3" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -9681,7 +7960,7 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -9700,7 +7979,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" ht="14">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -9721,14 +8000,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q17"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9741,11 +8020,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A16">
       <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -9754,9 +8033,9 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -9766,12 +8045,12 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -9780,12 +8059,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -9794,10 +8073,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14"/>
+    <row r="5" ht="14">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -9816,7 +8095,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -9835,7 +8114,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -9854,7 +8133,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -9873,7 +8152,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -9892,7 +8171,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -9911,7 +8190,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -9930,7 +8209,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -9949,7 +8228,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -9968,7 +8247,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -9987,7 +8266,7 @@
       <c r="P14" s="59"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -10006,7 +8285,7 @@
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -10025,7 +8304,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -10044,7 +8323,7 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" s="55"/>
       <c r="B18" s="56"/>
       <c r="C18" s="56"/>
@@ -10063,7 +8342,7 @@
       <c r="P18" s="56"/>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -10082,7 +8361,7 @@
       <c r="P19" s="59"/>
       <c r="Q19" s="60"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" s="58"/>
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
@@ -10101,7 +8380,7 @@
       <c r="P20" s="59"/>
       <c r="Q20" s="60"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="58"/>
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
@@ -10120,7 +8399,7 @@
       <c r="P21" s="59"/>
       <c r="Q21" s="60"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="58"/>
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
@@ -10139,7 +8418,7 @@
       <c r="P22" s="59"/>
       <c r="Q22" s="60"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="58"/>
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
@@ -10158,7 +8437,7 @@
       <c r="P23" s="59"/>
       <c r="Q23" s="60"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -10177,7 +8456,7 @@
       <c r="P24" s="59"/>
       <c r="Q24" s="60"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="58"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -10196,7 +8475,7 @@
       <c r="P25" s="59"/>
       <c r="Q25" s="60"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="58"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -10215,7 +8494,7 @@
       <c r="P26" s="59"/>
       <c r="Q26" s="60"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="58"/>
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
@@ -10234,7 +8513,7 @@
       <c r="P27" s="59"/>
       <c r="Q27" s="60"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="58"/>
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
@@ -10253,7 +8532,7 @@
       <c r="P28" s="59"/>
       <c r="Q28" s="60"/>
     </row>
-    <row r="29" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="14">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
@@ -10272,7 +8551,7 @@
       <c r="P29" s="62"/>
       <c r="Q29" s="63"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="59"/>
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
@@ -10291,10 +8570,10 @@
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
     </row>
-    <row r="32" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="14"/>
+    <row r="33" ht="14">
       <c r="A33" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -10313,7 +8592,7 @@
       <c r="P33" s="53"/>
       <c r="Q33" s="54"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -10332,9 +8611,9 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -10343,7 +8622,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -10355,7 +8634,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -10374,9 +8653,9 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -10385,7 +8664,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -10397,9 +8676,9 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -10418,7 +8697,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -10426,7 +8705,7 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
@@ -10438,7 +8717,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10447,7 +8726,7 @@
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -10459,7 +8738,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10468,7 +8747,7 @@
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -10480,9 +8759,9 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="6" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10501,7 +8780,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10510,7 +8789,7 @@
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
@@ -10522,9 +8801,9 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10543,9 +8822,9 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10554,7 +8833,7 @@
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -10566,7 +8845,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -10584,9 +8863,9 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" customHeight="1" ht="18">
       <c r="A47" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10595,7 +8874,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
@@ -10607,7 +8886,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -10625,9 +8904,9 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10636,7 +8915,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -10648,9 +8927,9 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10659,7 +8938,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -10671,7 +8950,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -10689,9 +8968,9 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -10705,13 +8984,13 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="13"/>
@@ -10723,7 +9002,7 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="54">
       <c r="A54" s="3"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -10737,11 +9016,11 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="3"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="13"/>
@@ -10753,7 +9032,7 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="3"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -10767,11 +9046,11 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="A57" s="3"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I57" s="14"/>
       <c r="J57" s="13"/>
@@ -10783,11 +9062,11 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="A58" s="3"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I58" s="14"/>
       <c r="J58" s="13"/>
@@ -10799,7 +9078,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="A59" s="3"/>
       <c r="B59" s="7"/>
       <c r="C59" s="4"/>
@@ -10818,7 +9097,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -10827,7 +9106,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -10839,7 +9118,7 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -10848,7 +9127,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="33" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -10860,7 +9139,7 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -10879,7 +9158,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -10898,7 +9177,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="14">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -10919,14 +9198,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A33:Q33"/>
-    <mergeCell ref="A18:Q29"/>
-    <mergeCell ref="A30:Q30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q17"/>
+    <mergeCell ref="A18:Q29"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10943,7 +9222,7 @@
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -10952,9 +9231,9 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -10964,12 +9243,12 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -10978,12 +9257,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -10992,10 +9271,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14"/>
+    <row r="5" ht="14">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -11014,7 +9293,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -11033,7 +9312,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -11052,7 +9331,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -11071,7 +9350,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -11090,7 +9369,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -11109,7 +9388,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -11128,7 +9407,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -11147,7 +9426,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -11166,7 +9445,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -11185,7 +9464,7 @@
       <c r="P14" s="59"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -11204,7 +9483,7 @@
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -11223,7 +9502,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -11242,10 +9521,10 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14"/>
+    <row r="20" ht="14">
       <c r="A20" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -11264,7 +9543,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="54"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -11283,9 +9562,9 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -11295,7 +9574,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -11306,9 +9585,9 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -11318,7 +9597,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -11329,7 +9608,7 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -11348,9 +9627,9 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="3" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -11360,7 +9639,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -11371,7 +9650,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -11390,9 +9669,9 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -11402,7 +9681,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -11413,9 +9692,9 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -11425,7 +9704,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -11436,9 +9715,9 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -11448,7 +9727,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="3" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -11459,7 +9738,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -11478,9 +9757,9 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11490,7 +9769,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="3" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -11501,7 +9780,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -11520,9 +9799,9 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="3" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -11532,7 +9811,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="3" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -11543,7 +9822,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -11562,9 +9841,9 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="3" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -11574,7 +9853,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -11585,7 +9864,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -11604,9 +9883,9 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="3" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -11616,7 +9895,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -11627,7 +9906,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -11646,9 +9925,9 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="3" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -11658,7 +9937,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="3" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -11669,7 +9948,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -11688,9 +9967,9 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="3" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11700,7 +9979,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="3" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -11711,7 +9990,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -11730,9 +10009,9 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="3" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -11742,7 +10021,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="3" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -11753,7 +10032,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -11772,9 +10051,9 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="45">
       <c r="A45" s="3" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -11784,7 +10063,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -11795,7 +10074,7 @@
       <c r="P45" s="4"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -11814,9 +10093,9 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="47">
       <c r="A47" s="3" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -11826,7 +10105,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="3" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -11837,7 +10116,7 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="48">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -11856,9 +10135,9 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="5"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="49">
       <c r="A49" s="3" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -11877,7 +10156,7 @@
       <c r="P49" s="4"/>
       <c r="Q49" s="5"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="50">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -11896,7 +10175,7 @@
       <c r="P50" s="4"/>
       <c r="Q50" s="5"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="51">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -11915,9 +10194,9 @@
       <c r="P51" s="4"/>
       <c r="Q51" s="5"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="52">
       <c r="A52" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -11927,7 +10206,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -11938,7 +10217,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="53">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -11957,9 +10236,9 @@
       <c r="P53" s="4"/>
       <c r="Q53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" customHeight="1" ht="18">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -11969,7 +10248,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -11980,7 +10259,7 @@
       <c r="P54" s="4"/>
       <c r="Q54" s="5"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="55">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -11999,9 +10278,9 @@
       <c r="P55" s="4"/>
       <c r="Q55" s="5"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="56">
       <c r="A56" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -12011,7 +10290,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -12022,9 +10301,9 @@
       <c r="P56" s="4"/>
       <c r="Q56" s="5"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="57">
       <c r="A57" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -12034,7 +10313,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -12045,7 +10324,7 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="5"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="58">
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -12063,7 +10342,7 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="5"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="59">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -12082,7 +10361,7 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="5"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="60">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -12101,9 +10380,9 @@
       <c r="P60" s="4"/>
       <c r="Q60" s="5"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="61">
       <c r="A61" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -12113,7 +10392,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -12124,9 +10403,9 @@
       <c r="P61" s="4"/>
       <c r="Q61" s="5"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="62">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -12136,7 +10415,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -12147,7 +10426,7 @@
       <c r="P62" s="4"/>
       <c r="Q62" s="5"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="63">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -12166,7 +10445,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" ht="14">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -12187,12 +10466,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:Q20"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="A5:Q5"/>
     <mergeCell ref="A6:Q17"/>
+    <mergeCell ref="A20:Q20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12205,11 +10484,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="8.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -12218,9 +10497,9 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="43" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -12230,12 +10509,12 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
@@ -12244,12 +10523,12 @@
       <c r="G2" s="47"/>
       <c r="H2" s="48"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
@@ -12258,10 +10537,10 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="14"/>
+    <row r="5" ht="14">
       <c r="A5" s="52" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5" s="53"/>
       <c r="C5" s="53"/>
@@ -12280,7 +10559,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6">
       <c r="A6" s="55"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
@@ -12299,7 +10578,7 @@
       <c r="P6" s="56"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -12318,7 +10597,7 @@
       <c r="P7" s="59"/>
       <c r="Q7" s="60"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -12337,7 +10616,7 @@
       <c r="P8" s="59"/>
       <c r="Q8" s="60"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9">
       <c r="A9" s="58"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -12356,7 +10635,7 @@
       <c r="P9" s="59"/>
       <c r="Q9" s="60"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="A10" s="58"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -12375,7 +10654,7 @@
       <c r="P10" s="59"/>
       <c r="Q10" s="60"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -12394,7 +10673,7 @@
       <c r="P11" s="59"/>
       <c r="Q11" s="60"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" s="58"/>
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
@@ -12413,7 +10692,7 @@
       <c r="P12" s="59"/>
       <c r="Q12" s="60"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" s="58"/>
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
@@ -12432,7 +10711,7 @@
       <c r="P13" s="59"/>
       <c r="Q13" s="60"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" s="58"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -12451,7 +10730,7 @@
       <c r="P14" s="59"/>
       <c r="Q14" s="60"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" s="58"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
@@ -12470,7 +10749,7 @@
       <c r="P15" s="59"/>
       <c r="Q15" s="60"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -12489,7 +10768,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="14">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -12508,10 +10787,10 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="14"/>
+    <row r="20" ht="14">
       <c r="A20" s="52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -12530,7 +10809,7 @@
       <c r="P20" s="53"/>
       <c r="Q20" s="54"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -12549,10 +10828,10 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" s="6"/>
       <c r="B22" s="12" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -12562,7 +10841,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="12" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="K22" s="4"/>
       <c r="M22" s="4"/>
@@ -12571,7 +10850,7 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -12589,10 +10868,10 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -12602,7 +10881,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K24" s="4"/>
       <c r="M24" s="4"/>
@@ -12611,10 +10890,10 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" s="3"/>
       <c r="B25" s="33" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -12624,7 +10903,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="33" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K25" s="4"/>
       <c r="M25" s="4"/>
@@ -12633,7 +10912,7 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -12651,7 +10930,7 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -12669,7 +10948,7 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="28">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -12687,7 +10966,7 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -12705,7 +10984,7 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -12723,10 +11002,10 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="31">
       <c r="A31" s="3"/>
       <c r="B31" s="12" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -12736,7 +11015,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="K31" s="4"/>
       <c r="M31" s="4"/>
@@ -12745,7 +11024,7 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="5"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -12763,10 +11042,10 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="5"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -12776,7 +11055,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="K33" s="4"/>
       <c r="M33" s="4"/>
@@ -12785,10 +11064,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="5"/>
     </row>
-    <row r="34" spans="1:17" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" customHeight="1" ht="18">
       <c r="A34" s="3"/>
       <c r="B34" s="33" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -12798,7 +11077,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="33"/>
       <c r="J34" s="33" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K34" s="4"/>
       <c r="M34" s="4"/>
@@ -12807,7 +11086,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="5"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12826,7 +11105,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="5"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -12845,7 +11124,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="5"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -12864,7 +11143,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="5"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -12883,7 +11162,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="5"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -12902,7 +11181,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="5"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" s="3"/>
       <c r="B40" s="7"/>
       <c r="C40" s="4"/>
@@ -12921,7 +11200,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="5"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -12940,7 +11219,7 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="5"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -12959,7 +11238,7 @@
       <c r="P42" s="4"/>
       <c r="Q42" s="5"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -12978,7 +11257,7 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="5"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -12997,7 +11276,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="14">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -13040,7 +11319,7 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -13049,276 +11328,276 @@
     <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B1" s="41" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D1" s="41" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="39" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="28">
         <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="28">
         <v>10</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="28">
         <v>11</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="28">
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" ht="14">
       <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="37"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -13334,11 +11613,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="I11" sqref="I11" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -13347,12 +11626,12 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="14">
       <c r="A1" s="26" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>29</v>
@@ -13361,228 +11640,368 @@
         <v>31</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="65"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="28">
         <v>2</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="28">
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>205</v>
+        <v>73</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="28">
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="28">
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="28">
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="28">
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="28">
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="28">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="28">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="14">
       <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F12" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" s="0"/>
+    <row r="25" customFormat="1" s="0"/>
+    <row r="29">
+      <c r="B29" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -13603,7 +12022,7 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="12.75" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
@@ -13613,22 +12032,22 @@
     <col min="6" max="6" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -13639,10 +12058,10 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -13650,10 +12069,10 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -13661,10 +12080,10 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="D8" t="s">
         <v>10</v>
       </c>
@@ -13672,10 +12091,10 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="D9" t="s">
         <v>12</v>
       </c>
@@ -13683,7 +12102,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10">
       <c r="D10" t="s">
         <v>13</v>
       </c>
@@ -13691,12 +12110,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11">
       <c r="E11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="D12" t="s">
         <v>14</v>
       </c>
@@ -13704,12 +12123,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -13717,12 +12136,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="D16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -13733,39 +12152,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="E19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="D21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="D22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="D23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="D24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="D25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="C27" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -13779,122 +12198,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="B9" sqref="B9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="22.875" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" ht="14"/>
+    <row r="3" ht="14">
       <c r="A3" s="66" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B3" s="65"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" s="32" t="s">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="30" t="s">
+      <c r="B10" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="30" t="s">
+      <c r="B11" s="19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" ht="14">
+      <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="B12" s="21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" ht="14"/>
+    <row r="15" ht="14">
       <c r="A15" s="35" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B15" s="34"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" s="32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" ht="14">
       <c r="A17" s="31" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -745,6 +745,63 @@
   </si>
   <si>
     <t>Javaの日付データ変換</t>
+  </si>
+  <si>
+    <t>　　　　2-1-5 選択された生年月日を取得</t>
+  </si>
+  <si>
+    <t>　　　　2-1-9. 選択された入社日を取得</t>
+  </si>
+  <si>
+    <t>　　　　2-1-9. 選択された職業カテゴリを取得</t>
+  </si>
+  <si>
+    <t>　　　　2-1-6. 選択された生年月日を取得</t>
+  </si>
+  <si>
+    <t>　　　　2-1-10. 選択された入社日を取得</t>
+  </si>
+  <si>
+    <t>年齢が選択されていません</t>
+  </si>
+  <si>
+    <t>生年月日が選択されていません</t>
+  </si>
+  <si>
+    <t>生年月日選択エラー</t>
+  </si>
+  <si>
+    <t>年齢選択エラー</t>
+  </si>
+  <si>
+    <t>性別選択エラー</t>
+  </si>
+  <si>
+    <t>入社日選択エラー</t>
+  </si>
+  <si>
+    <t>管理者選択エラー</t>
+  </si>
+  <si>
+    <t>入社日が選択されていません</t>
+  </si>
+  <si>
+    <t>入社日が未選択の場合</t>
+  </si>
+  <si>
+    <t>管理者のボタンが未選択の場合</t>
+  </si>
+  <si>
+    <t>生年月日が未選択の場合</t>
+  </si>
+  <si>
+    <t>性別が未選択の場合</t>
+  </si>
+  <si>
+    <t>年齢が未選択の場合</t>
+  </si>
+  <si>
+    <t>管理者が未選択の場合</t>
   </si>
 </sst>
 </file>
@@ -2161,7 +2218,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18916159">
-          <a:off x="5581650" y="1857375"/>
+          <a:off x="5581650" y="1828800"/>
           <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2221,7 +2278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="2171700"/>
+          <a:off x="847725" y="2143125"/>
           <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2288,7 +2345,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="2409825"/>
+          <a:off x="2371725" y="2381250"/>
           <a:ext cx="1638300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2335,7 +2392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="2143125"/>
+          <a:off x="4010025" y="2114550"/>
           <a:ext cx="1524000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2402,7 +2459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="2066925"/>
+          <a:off x="8258175" y="2038350"/>
           <a:ext cx="1647825" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
@@ -2472,7 +2529,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="2390775"/>
+          <a:off x="5534025" y="2362200"/>
           <a:ext cx="2733675" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2519,7 +2576,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="952500"/>
+          <a:off x="4800600" y="923925"/>
           <a:ext cx="990600" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2594,7 +2651,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5534025" y="1381125"/>
+          <a:off x="5534025" y="1352550"/>
           <a:ext cx="819150" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2641,7 +2698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6505575" y="2486025"/>
+          <a:off x="6505575" y="2457450"/>
           <a:ext cx="895350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2701,7 +2758,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4038600" y="1371600"/>
+          <a:off x="4038600" y="1343025"/>
           <a:ext cx="762000" cy="742950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2748,7 +2805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="18767331">
-          <a:off x="3733800" y="1476375"/>
+          <a:off x="3733800" y="1447800"/>
           <a:ext cx="914400" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2808,7 +2865,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6353175" y="942975"/>
+          <a:off x="6353175" y="914400"/>
           <a:ext cx="1000125" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2899,7 +2956,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="142875" y="1781175"/>
+          <a:off x="142875" y="1752600"/>
           <a:ext cx="1514475" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2966,7 +3023,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1657350" y="2000250"/>
+          <a:off x="1657350" y="1971675"/>
           <a:ext cx="1228725" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3013,7 +3070,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2886075" y="1657350"/>
+          <a:off x="2886075" y="1628775"/>
           <a:ext cx="1343025" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
@@ -3080,7 +3137,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1781175" y="2105025"/>
+          <a:off x="1781175" y="2076450"/>
           <a:ext cx="885825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3141,7 +3198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19853309">
-          <a:off x="4143375" y="3476625"/>
+          <a:off x="4143375" y="3438525"/>
           <a:ext cx="895350" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3201,7 +3258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="4238625"/>
+          <a:off x="847725" y="4200525"/>
           <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3268,7 +3325,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2362200" y="4457700"/>
+          <a:off x="2362200" y="4419600"/>
           <a:ext cx="4086225" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3315,7 +3372,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448425" y="4133850"/>
+          <a:off x="6448425" y="4095750"/>
           <a:ext cx="1352550" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
@@ -3382,7 +3439,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5438775" y="3057525"/>
+          <a:off x="5438775" y="3019425"/>
           <a:ext cx="1704975" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -3457,7 +3514,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3819525" y="3457575"/>
+          <a:off x="3819525" y="3419475"/>
           <a:ext cx="1619250" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3504,7 +3561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743450" y="4572000"/>
+          <a:off x="4743450" y="4533900"/>
           <a:ext cx="885825" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3565,7 +3622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="933450"/>
+          <a:off x="38100" y="904875"/>
           <a:ext cx="1247775" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3633,7 +3690,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38100" y="3019425"/>
+          <a:off x="38100" y="2981325"/>
           <a:ext cx="771525" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3701,7 +3758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5410200" y="2114550"/>
+          <a:off x="5410200" y="2085975"/>
           <a:ext cx="1628775" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3768,7 +3825,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7038975" y="2333625"/>
+          <a:off x="7038975" y="2305050"/>
           <a:ext cx="2190750" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3815,7 +3872,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9229725" y="1990725"/>
+          <a:off x="9229725" y="1962150"/>
           <a:ext cx="1352550" cy="695325"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
@@ -3882,7 +3939,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7610475" y="2447925"/>
+          <a:off x="7610475" y="2419350"/>
           <a:ext cx="885825" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3943,7 +4000,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9334500" y="1028700"/>
+          <a:off x="9334500" y="1000125"/>
           <a:ext cx="1714500" cy="800100"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -4018,7 +4075,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19379683">
-          <a:off x="8048625" y="1562100"/>
+          <a:off x="8048625" y="1533525"/>
           <a:ext cx="914400" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4078,7 +4135,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7972425" y="1428750"/>
+          <a:off x="7972425" y="1400175"/>
           <a:ext cx="1362075" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4125,7 +4182,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4457700" y="3771900"/>
+          <a:off x="4457700" y="3733800"/>
           <a:ext cx="1047750" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4172,7 +4229,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19873217">
-          <a:off x="4772025" y="4038600"/>
+          <a:off x="4772025" y="4000500"/>
           <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4232,7 +4289,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3162300" y="4229100"/>
+          <a:off x="3162300" y="4191000"/>
           <a:ext cx="1304925" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4304,8 +4361,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19481207">
-          <a:off x="5463698" y="1831530"/>
-          <a:ext cx="906108" cy="241824"/>
+          <a:off x="5457825" y="1800225"/>
+          <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,8 +4421,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="855177" y="2174276"/>
-          <a:ext cx="1516324" cy="430810"/>
+          <a:off x="847725" y="2143125"/>
+          <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4431,8 +4488,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374358" y="2415062"/>
-          <a:ext cx="1639197" cy="1820"/>
+          <a:off x="2371725" y="2381250"/>
+          <a:ext cx="1638300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4478,8 +4535,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4013555" y="2145868"/>
-          <a:ext cx="1521087" cy="491267"/>
+          <a:off x="4010025" y="2114550"/>
+          <a:ext cx="1524000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4545,8 +4602,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8263723" y="2071687"/>
-          <a:ext cx="1351206" cy="701824"/>
+          <a:off x="8258175" y="2038350"/>
+          <a:ext cx="1352550" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
           <a:avLst/>
@@ -4621,8 +4678,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534642" y="2416882"/>
-          <a:ext cx="2728128" cy="7622"/>
+          <a:off x="5534025" y="2381250"/>
+          <a:ext cx="2724150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4668,8 +4725,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6076601" y="919786"/>
-          <a:ext cx="1000642" cy="792207"/>
+          <a:off x="6067425" y="885825"/>
+          <a:ext cx="1009650" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4743,8 +4800,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4774099" y="1315890"/>
-          <a:ext cx="1302502" cy="829978"/>
+          <a:off x="4772025" y="1285875"/>
+          <a:ext cx="1295400" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4790,8 +4847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6578942" y="2148135"/>
-          <a:ext cx="882167" cy="239646"/>
+          <a:off x="6591300" y="2076450"/>
+          <a:ext cx="895350" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4850,7 +4907,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5124450" y="1581150"/>
+          <a:off x="5124450" y="1552575"/>
           <a:ext cx="971550" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4897,8 +4954,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19474695">
-          <a:off x="4752976" y="1419225"/>
-          <a:ext cx="903867" cy="229657"/>
+          <a:off x="4752975" y="1390650"/>
+          <a:ext cx="895350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4962,7 +5019,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="2143125"/>
+          <a:off x="228600" y="2114550"/>
           <a:ext cx="3829050" cy="561975"/>
           <a:chOff x="578952" y="1755343"/>
           <a:chExt cx="3821598" cy="563041"/>
@@ -5172,7 +5229,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="228600" y="1257300"/>
+          <a:off x="228600" y="1228725"/>
           <a:ext cx="3905250" cy="561975"/>
           <a:chOff x="588477" y="1755343"/>
           <a:chExt cx="3897798" cy="563041"/>
@@ -5398,7 +5455,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4876800" y="1238250"/>
+          <a:off x="4876800" y="1209675"/>
           <a:ext cx="3914775" cy="561975"/>
           <a:chOff x="578952" y="1755343"/>
           <a:chExt cx="3907323" cy="563041"/>
@@ -5624,7 +5681,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4905375" y="2124075"/>
+          <a:off x="4905375" y="2095500"/>
           <a:ext cx="3914775" cy="561975"/>
           <a:chOff x="578952" y="1755176"/>
           <a:chExt cx="3907323" cy="563208"/>
@@ -6135,7 +6192,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -6175,8 +6232,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" ht="14"/>
-    <row r="5" ht="14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
@@ -6406,7 +6462,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -6425,8 +6481,7 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" ht="14"/>
-    <row r="20" ht="14">
+    <row r="20">
       <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
@@ -6975,7 +7030,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" ht="14">
+    <row r="47">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -7016,7 +7071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A10">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -7029,7 +7084,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -7069,8 +7124,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" ht="14"/>
-    <row r="5" ht="14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
@@ -7300,7 +7354,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -7319,8 +7373,7 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" ht="14"/>
-    <row r="20" ht="14">
+    <row r="20">
       <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
@@ -7979,7 +8032,7 @@
       <c r="P52" s="4"/>
       <c r="Q52" s="5"/>
     </row>
-    <row r="53" ht="14">
+    <row r="53">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -8020,7 +8073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A16">
+    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A22">
       <selection activeCell="A6" sqref="A6:Q17"/>
     </sheetView>
   </sheetViews>
@@ -8033,7 +8086,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -8073,8 +8126,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" ht="14"/>
-    <row r="5" ht="14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
@@ -8304,7 +8356,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -8532,7 +8584,7 @@
       <c r="P28" s="59"/>
       <c r="Q28" s="60"/>
     </row>
-    <row r="29" ht="14">
+    <row r="29">
       <c r="A29" s="61"/>
       <c r="B29" s="62"/>
       <c r="C29" s="62"/>
@@ -8570,8 +8622,7 @@
       <c r="P30" s="59"/>
       <c r="Q30" s="59"/>
     </row>
-    <row r="32" ht="14"/>
-    <row r="33" ht="14">
+    <row r="33">
       <c r="A33" s="52" t="s">
         <v>56</v>
       </c>
@@ -9177,7 +9228,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" ht="14">
+    <row r="64">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -9218,8 +9269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView showGridLines="false" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9231,7 +9282,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -9271,8 +9322,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" ht="14"/>
-    <row r="5" ht="14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
@@ -9502,7 +9552,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -9521,8 +9571,7 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" ht="14"/>
-    <row r="20" ht="14">
+    <row r="20">
       <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
@@ -9895,7 +9944,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="3" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -9927,7 +9976,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10063,7 +10112,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="3" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -10095,7 +10144,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10445,7 +10494,7 @@
       <c r="P63" s="4"/>
       <c r="Q63" s="5"/>
     </row>
-    <row r="64" ht="14">
+    <row r="64">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -10484,7 +10533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -10497,7 +10546,7 @@
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="43" t="s">
         <v>50</v>
       </c>
@@ -10537,8 +10586,7 @@
       <c r="G3" s="50"/>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" ht="14"/>
-    <row r="5" ht="14">
+    <row r="5">
       <c r="A5" s="52" t="s">
         <v>55</v>
       </c>
@@ -10768,7 +10816,7 @@
       <c r="P16" s="59"/>
       <c r="Q16" s="60"/>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="61"/>
       <c r="B17" s="62"/>
       <c r="C17" s="62"/>
@@ -10787,8 +10835,7 @@
       <c r="P17" s="62"/>
       <c r="Q17" s="63"/>
     </row>
-    <row r="19" ht="14"/>
-    <row r="20" ht="14">
+    <row r="20">
       <c r="A20" s="52" t="s">
         <v>56</v>
       </c>
@@ -11276,7 +11323,7 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" ht="14">
+    <row r="45">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -11315,8 +11362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="C15" sqref="C15" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11328,7 +11375,7 @@
     <col min="5" max="5" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="26" t="s">
         <v>123</v>
       </c>
@@ -11435,13 +11482,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>157</v>
+        <v>247</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>165</v>
+        <v>256</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>127</v>
@@ -11452,13 +11499,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>162</v>
+        <v>248</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>161</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>127</v>
@@ -11469,13 +11516,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>127</v>
@@ -11537,30 +11584,30 @@
         <v>12</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>172</v>
+        <v>249</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>177</v>
+        <v>251</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="14" ht="14">
+    <row r="14">
       <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>173</v>
+        <v>250</v>
       </c>
       <c r="C14" s="38" t="s">
         <v>178</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>181</v>
+        <v>257</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>127</v>
@@ -11614,7 +11661,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="I11" sqref="I11" activeCellId="0"/>
+      <selection activeCell="I29" sqref="I29" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11626,7 +11673,7 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14">
+    <row r="1">
       <c r="A1" s="26" t="s">
         <v>123</v>
       </c>
@@ -11844,7 +11891,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" ht="14">
+    <row r="12">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -12214,8 +12261,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" ht="14"/>
-    <row r="3" ht="14">
+    <row r="3">
       <c r="A3" s="66" t="s">
         <v>131</v>
       </c>
@@ -12285,7 +12331,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" ht="14">
+    <row r="12">
       <c r="A12" s="31" t="s">
         <v>41</v>
       </c>
@@ -12293,8 +12339,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" ht="14"/>
-    <row r="15" ht="14">
+    <row r="15">
       <c r="A15" s="35" t="s">
         <v>130</v>
       </c>
@@ -12308,7 +12353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" ht="14">
+    <row r="17">
       <c r="A17" s="31" t="s">
         <v>46</v>
       </c>

--- a/プログラム設計書.xlsx
+++ b/プログラム設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="画面項目定義書(ログイン画面)" sheetId="4" r:id="rId1"/>
@@ -803,6 +803,18 @@
   <si>
     <t>管理者が未選択の場合</t>
   </si>
+  <si>
+    <t>7文字未満/10文字以上の場合</t>
+  </si>
+  <si>
+    <t>パスワードの文字数を8文字以上10文字以下にしてください。</t>
+  </si>
+  <si>
+    <t>7文字未満/11文字以上の場合</t>
+  </si>
+  <si>
+    <t>7文字以下/11文字以上の場合</t>
+  </si>
 </sst>
 </file>
 
@@ -811,7 +823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +864,10 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -873,7 +889,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1324,11 +1340,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thick"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1455,6 +1516,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="2" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0" quotePrefix="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="176" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0" quotePrefix="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="0" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1494,7 +1615,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19669043">
-          <a:off x="4629150" y="1600200"/>
+          <a:off x="4629150" y="1571625"/>
           <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1554,7 +1675,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="847725" y="2171700"/>
+          <a:off x="847725" y="2143125"/>
           <a:ext cx="1514475" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1621,7 +1742,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="2409825"/>
+          <a:off x="2371725" y="2381250"/>
           <a:ext cx="1638300" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1668,7 +1789,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4010025" y="2143125"/>
+          <a:off x="4010025" y="2114550"/>
           <a:ext cx="1524000" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1735,7 +1856,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8258175" y="2066925"/>
+          <a:off x="8258175" y="2038350"/>
           <a:ext cx="1352550" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="wave">
@@ -1802,7 +1923,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534025" y="2409825"/>
+          <a:off x="5534025" y="2381250"/>
           <a:ext cx="2724150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1849,7 +1970,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5591175" y="971550"/>
+          <a:off x="5591175" y="942975"/>
           <a:ext cx="1000125" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -1924,7 +2045,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4772025" y="1657350"/>
+          <a:off x="4772025" y="1628775"/>
           <a:ext cx="838200" cy="485775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1971,7 +2092,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6448425" y="2466975"/>
+          <a:off x="6448425" y="2438400"/>
           <a:ext cx="895350" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2031,7 +2152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7562850" y="990600"/>
+          <a:off x="7562850" y="962025"/>
           <a:ext cx="1000125" cy="790575"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
@@ -2106,7 +2227,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6581775" y="1695450"/>
+          <a:off x="6581775" y="1666875"/>
           <a:ext cx="1000125" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2153,7 +2274,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="19672549">
-          <a:off x="6572250" y="1714500"/>
+          <a:off x="6572250" y="1685925"/>
           <a:ext cx="904875" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6179,7 +6300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScaleNormal="100" workbookViewId="0" topLeftCell="A16">
+    <sheetView showGridLines="false" workbookViewId="0" topLeftCell="A16">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -7071,7 +7192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A10">
+    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -8073,8 +8194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A22">
-      <selection activeCell="A6" sqref="A6:Q17"/>
+    <sheetView showGridLines="false" zoomScale="85" zoomScaleNormal="85" workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="E44" sqref="E44" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8623,629 +8744,668 @@
       <c r="Q30" s="59"/>
     </row>
     <row r="33">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="54"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
+      <c r="M33" s="69"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="69"/>
+      <c r="P33" s="69"/>
+      <c r="Q33" s="70"/>
     </row>
     <row r="34">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="72"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="73"/>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="12" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="5"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="73"/>
     </row>
     <row r="36">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="5"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="73"/>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="73"/>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="5"/>
+      <c r="B38" s="72"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="73"/>
     </row>
     <row r="39">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="72"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="72"/>
+      <c r="H39" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="5"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="73"/>
     </row>
     <row r="40">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
+      <c r="A40" s="71"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="4"/>
-      <c r="Q40" s="5"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="73"/>
     </row>
     <row r="41">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="72"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="5"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="73"/>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="5"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="72"/>
+      <c r="D42" s="72"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="73"/>
     </row>
     <row r="43">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="72"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="5"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="73"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="5"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="72"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="73"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="5"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="73"/>
     </row>
     <row r="46">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="5"/>
+      <c r="A46" s="76"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="73"/>
     </row>
     <row r="47" customHeight="1" ht="18">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
+      <c r="B47" s="72"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="72"/>
+      <c r="G47" s="72"/>
+      <c r="H47" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="5"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="73"/>
     </row>
     <row r="48">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="5"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="72"/>
+      <c r="C48" s="72"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="72"/>
+      <c r="K48" s="72"/>
+      <c r="L48" s="72"/>
+      <c r="M48" s="72"/>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="73"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="B49" s="72"/>
+      <c r="C49" s="72"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
+      <c r="G49" s="72"/>
+      <c r="H49" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="5"/>
+      <c r="I49" s="72"/>
+      <c r="J49" s="72"/>
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="73"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
+      <c r="B50" s="72"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="5"/>
+      <c r="I50" s="72"/>
+      <c r="J50" s="72"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="73"/>
     </row>
     <row r="51">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="5"/>
+      <c r="A51" s="76"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
+      <c r="G51" s="72"/>
+      <c r="H51" s="72"/>
+      <c r="I51" s="72"/>
+      <c r="J51" s="72"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="73"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="5"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="78"/>
+      <c r="J52" s="79"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="73"/>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="5"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="79"/>
+      <c r="K53" s="79"/>
+      <c r="L53" s="79"/>
+      <c r="M53" s="79"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="73"/>
     </row>
     <row r="54">
-      <c r="A54" s="3"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="5"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="72"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="78"/>
+      <c r="J54" s="79"/>
+      <c r="K54" s="79"/>
+      <c r="L54" s="79"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="73"/>
     </row>
     <row r="55">
-      <c r="A55" s="3"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I55" s="14"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="5"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="73"/>
     </row>
     <row r="56">
-      <c r="A56" s="3"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="5"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="72"/>
+      <c r="I56" s="78"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="73"/>
     </row>
     <row r="57">
-      <c r="A57" s="3"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="72"/>
+      <c r="H57" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="I57" s="14"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="5"/>
+      <c r="I57" s="78"/>
+      <c r="J57" s="79"/>
+      <c r="K57" s="79"/>
+      <c r="L57" s="79"/>
+      <c r="M57" s="79"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="73"/>
     </row>
     <row r="58">
-      <c r="A58" s="3"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="72"/>
+      <c r="H58" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="5"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="79"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="79"/>
+      <c r="M58" s="79"/>
+      <c r="N58" s="72"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="73"/>
     </row>
     <row r="59">
-      <c r="A59" s="3"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="5"/>
+      <c r="A59" s="71"/>
+      <c r="B59" s="72"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="72"/>
+      <c r="G59" s="72"/>
+      <c r="H59" s="72"/>
+      <c r="I59" s="72"/>
+      <c r="J59" s="72"/>
+      <c r="K59" s="72"/>
+      <c r="L59" s="72"/>
+      <c r="M59" s="72"/>
+      <c r="N59" s="72"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="73"/>
     </row>
     <row r="60">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="72"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="72"/>
+      <c r="G60" s="72"/>
+      <c r="H60" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="5"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="72"/>
+      <c r="L60" s="72"/>
+      <c r="M60" s="72"/>
+      <c r="N60" s="72"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="73"/>
     </row>
     <row r="61">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="33" t="s">
+      <c r="A61" s="71"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="72"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
+      <c r="F61" s="72"/>
+      <c r="G61" s="72"/>
+      <c r="H61" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="5"/>
+      <c r="I61" s="72"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="72"/>
+      <c r="L61" s="72"/>
+      <c r="M61" s="72"/>
+      <c r="N61" s="72"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="73"/>
     </row>
     <row r="62">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="5"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="F62" s="72"/>
+      <c r="G62" s="72"/>
+      <c r="H62" s="72"/>
+      <c r="I62" s="72"/>
+      <c r="J62" s="72"/>
+      <c r="K62" s="72"/>
+      <c r="L62" s="72"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="73"/>
     </row>
     <row r="63">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="5"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="72"/>
+      <c r="H63" s="72"/>
+      <c r="I63" s="72"/>
+      <c r="J63" s="72"/>
+      <c r="K63" s="72"/>
+      <c r="L63" s="72"/>
+      <c r="M63" s="72"/>
+      <c r="N63" s="72"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="73"/>
     </row>
     <row r="64">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="9"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
-      <c r="Q64" s="10"/>
+      <c r="A64" s="80"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="81"/>
+      <c r="I64" s="81"/>
+      <c r="J64" s="81"/>
+      <c r="K64" s="81"/>
+      <c r="L64" s="81"/>
+      <c r="M64" s="81"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9269,7 +9429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q64"/>
   <sheetViews>
-    <sheetView showGridLines="false" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="false" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D39" sqref="D39" activeCellId="0"/>
     </sheetView>
   </sheetViews>
@@ -11362,8 +11522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection activeCell="C15" sqref="C15" activeCellId="0"/>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="D24" sqref="D24" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11434,10 +11594,10 @@
         <v>115</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>183</v>
+        <v>259</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>152</v>
@@ -11660,7 +11820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
+    <sheetView workbookViewId="0">
       <selection activeCell="I29" sqref="I29" activeCellId="0"/>
     </sheetView>
   </sheetViews>
